--- a/Data_Base/Refrigeration air conditioning equipment.xlsx
+++ b/Data_Base/Refrigeration air conditioning equipment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7370"/>
+    <workbookView windowWidth="19100" windowHeight="7370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>Process</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Company 1</t>
   </si>
 </sst>
 </file>
@@ -73,15 +76,99 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -96,7 +183,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,128 +229,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,187 +243,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,20 +437,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,6 +463,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,50 +526,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,130 +555,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1005,7 @@
   <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1143,8 +1146,8 @@
   <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1224,8 +1227,8 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>12</v>

--- a/Data_Base/Refrigeration air conditioning equipment.xlsx
+++ b/Data_Base/Refrigeration air conditioning equipment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7370" activeTab="1"/>
+    <workbookView windowWidth="19100" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Company 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>Process</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Sales Price</t>
+  </si>
+  <si>
+    <t>Con_Contamination</t>
   </si>
   <si>
     <t>Refrigeration air conditioning equipment</t>
@@ -76,17 +79,39 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFBCA366"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,9 +123,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,59 +133,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +146,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -183,7 +191,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +212,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -204,33 +235,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -249,181 +258,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +443,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,6 +470,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -463,6 +490,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,58 +539,14 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,135 +564,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,10 +1015,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1021,7 +1033,7 @@
     <col min="11" max="11" width="22.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="40.5" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,10 +1070,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -1085,54 +1100,57 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2">
         <v>6800</v>
       </c>
       <c r="L2">
         <v>0.25</v>
+      </c>
+      <c r="M2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1144,10 +1162,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1164,7 +1182,7 @@
     <col min="12" max="12" width="10.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="40.5" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1201,10 +1219,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>70</v>
@@ -1228,54 +1249,57 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2">
         <v>9000</v>
       </c>
       <c r="L2">
         <v>0.25</v>
+      </c>
+      <c r="M2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
